--- a/Quanlybanhang/dtb xe/cate.xlsx
+++ b/Quanlybanhang/dtb xe/cate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quanlybanhang2\dtb xe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766EE310-15CD-42DA-BD5A-CF414B7C3136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFB6E8-B81C-4685-8CE0-03EE1EC04972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Category.ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>DDT</t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
 </sst>
 </file>
@@ -439,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,11 +504,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
